--- a/output/table2021_22_univariate.xlsx
+++ b/output/table2021_22_univariate.xlsx
@@ -475,22 +475,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1.06334347418565</v>
+        <v>1.06102412291661</v>
       </c>
       <c r="C2" t="n">
-        <v>0.480901247655539</v>
+        <v>0.480912003169164</v>
       </c>
       <c r="D2" t="n">
-        <v>2.21114725605225</v>
+        <v>2.20627498570335</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0270256414384412</v>
+        <v>0.0273647517217654</v>
       </c>
       <c r="F2" t="n">
-        <v>0.120794348660414</v>
+        <v>0.118453916972041</v>
       </c>
       <c r="G2" t="n">
-        <v>2.00589259971088</v>
+        <v>2.00359432886119</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -504,22 +504,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0.333862701611678</v>
+        <v>0.335314812327797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.43974776117466</v>
+        <v>0.439769676100709</v>
       </c>
       <c r="D3" t="n">
-        <v>0.759214102011251</v>
+        <v>0.762478248388843</v>
       </c>
       <c r="E3" t="n">
-        <v>0.447724491591571</v>
+        <v>0.445774620445569</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.528027072572777</v>
+        <v>-0.526617914322436</v>
       </c>
       <c r="G3" t="n">
-        <v>1.19575247579613</v>
+        <v>1.19724753897803</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -533,22 +533,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0.567219367105991</v>
+        <v>0.586208851835844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.586332955265129</v>
+        <v>0.586091058253566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.967401477287772</v>
+        <v>1.00020098170859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33334337184899</v>
+        <v>0.317213254257708</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.581972108162597</v>
+        <v>-0.562508514002112</v>
       </c>
       <c r="G4" t="n">
-        <v>1.71641084237458</v>
+        <v>1.7349262176738</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -562,22 +562,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>1.34573227277372</v>
+        <v>1.33721475840465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.795291425475373</v>
+        <v>0.79489603333248</v>
       </c>
       <c r="D5" t="n">
-        <v>1.6921247100952</v>
+        <v>1.68225114018822</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0906221979511301</v>
+        <v>0.0925201512255009</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.213010278371535</v>
+        <v>-0.220752838380757</v>
       </c>
       <c r="G5" t="n">
-        <v>2.90447482391897</v>
+        <v>2.89518235519006</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -591,22 +591,22 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.718169033275708</v>
+        <v>0.715064188903683</v>
       </c>
       <c r="C6" t="n">
-        <v>0.778972208033604</v>
+        <v>0.778917588910552</v>
       </c>
       <c r="D6" t="n">
-        <v>0.921944359335508</v>
+        <v>0.918022906510329</v>
       </c>
       <c r="E6" t="n">
-        <v>0.356557599185733</v>
+        <v>0.358606873649318</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.808588439427799</v>
+        <v>-0.811586232285774</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24492650597921</v>
+        <v>2.24171461009314</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -620,22 +620,22 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.29785962452509</v>
+        <v>-1.2990726661155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.816046160606171</v>
+        <v>0.815843020233027</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.59042427644169</v>
+        <v>-1.59230713985204</v>
       </c>
       <c r="E7" t="n">
-        <v>0.11173920181292</v>
+        <v>0.111315709461768</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.89728070903537</v>
+        <v>-2.89809560281062</v>
       </c>
       <c r="G7" t="n">
-        <v>0.301561459985194</v>
+        <v>0.299950270579613</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -649,22 +649,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0.680002477457538</v>
+        <v>0.694271542961142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.512964335296636</v>
+        <v>0.512810692254478</v>
       </c>
       <c r="D8" t="n">
-        <v>1.32563305217761</v>
+        <v>1.3538554352463</v>
       </c>
       <c r="E8" t="n">
-        <v>0.184961272652235</v>
+        <v>0.175782503682332</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.325389145077397</v>
+        <v>-0.310818944744688</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68539409999247</v>
+        <v>1.69936203066697</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -678,22 +678,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.89401088550728</v>
+        <v>-1.89235272565963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.919007819866336</v>
+        <v>0.919419683027003</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.06093010806236</v>
+        <v>-2.05820340873</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0393097084212355</v>
+        <v>0.0395706115427344</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.69523311395597</v>
+        <v>-3.69438219106979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0927886570585859</v>
+        <v>-0.0903232602494739</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -707,22 +707,22 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.390005702337502</v>
+        <v>0.386353694851859</v>
       </c>
       <c r="C10" t="n">
-        <v>0.205404342786175</v>
+        <v>0.205310228440055</v>
       </c>
       <c r="D10" t="n">
-        <v>1.89872179452163</v>
+        <v>1.88180441757515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0576010644261382</v>
+        <v>0.0598625758035911</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0125794117915209</v>
+        <v>-0.0160469585483393</v>
       </c>
       <c r="G10" t="n">
-        <v>0.792590816466526</v>
+        <v>0.788754348252056</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
@@ -736,22 +736,22 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.654245890706224</v>
+        <v>0.649437821152961</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206443577808577</v>
+        <v>0.20642141209899</v>
       </c>
       <c r="D11" t="n">
-        <v>3.16912687549364</v>
+        <v>3.14617468483125</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00152897635178113</v>
+        <v>0.00165421172886484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.24962391336182</v>
+        <v>0.24485928780104</v>
       </c>
       <c r="G11" t="n">
-        <v>1.05886786805063</v>
+        <v>1.05401635450488</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -765,22 +765,22 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>0.183358903007058</v>
+        <v>0.181011953841559</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21597590402359</v>
+        <v>0.215801589989641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.848978518395416</v>
+        <v>0.838788786728807</v>
       </c>
       <c r="E12" t="n">
-        <v>0.395893245660844</v>
+        <v>0.401587844231212</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.239946090407658</v>
+        <v>-0.241951390344618</v>
       </c>
       <c r="G12" t="n">
-        <v>0.606663896421775</v>
+        <v>0.603975298027735</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -794,22 +794,22 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>1.2974438221108</v>
+        <v>1.24933615102253</v>
       </c>
       <c r="C13" t="n">
-        <v>0.475139175118072</v>
+        <v>0.474577010046854</v>
       </c>
       <c r="D13" t="n">
-        <v>2.73066059389523</v>
+        <v>2.63252564825924</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00632075293102498</v>
+        <v>0.0084752623587837</v>
       </c>
       <c r="F13" t="n">
-        <v>0.366188151235314</v>
+        <v>0.319182303439989</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22869949298629</v>
+        <v>2.17948999860506</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
@@ -823,22 +823,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>0.324698820841082</v>
+        <v>0.262857777389429</v>
       </c>
       <c r="C14" t="n">
-        <v>0.43291981542025</v>
+        <v>0.433954504004882</v>
       </c>
       <c r="D14" t="n">
-        <v>0.750020695000727</v>
+        <v>0.605726579545933</v>
       </c>
       <c r="E14" t="n">
-        <v>0.453242240771711</v>
+        <v>0.544696331015834</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.523808425576335</v>
+        <v>-0.587677421389082</v>
       </c>
       <c r="G14" t="n">
-        <v>1.1732060672585</v>
+        <v>1.11339297616794</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
@@ -852,22 +852,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>1.94741308301502</v>
+        <v>1.90176545629516</v>
       </c>
       <c r="C15" t="n">
-        <v>0.631247835062043</v>
+        <v>0.629893787220703</v>
       </c>
       <c r="D15" t="n">
-        <v>3.0850214049821</v>
+        <v>3.01918433691237</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00203537504381251</v>
+        <v>0.00253456264430997</v>
       </c>
       <c r="F15" t="n">
-        <v>0.71019006097453</v>
+        <v>0.667196319257044</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1846361050555</v>
+        <v>3.13633459333327</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
@@ -881,22 +881,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>3.06657369977424</v>
+        <v>3.0640677341401</v>
       </c>
       <c r="C16" t="n">
-        <v>0.872199782502232</v>
+        <v>0.872215730339013</v>
       </c>
       <c r="D16" t="n">
-        <v>3.51590743462079</v>
+        <v>3.51297004578117</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000438253751206028</v>
+        <v>0.000443127430798077</v>
       </c>
       <c r="F16" t="n">
-        <v>1.35709353874619</v>
+        <v>1.35455631592633</v>
       </c>
       <c r="G16" t="n">
-        <v>4.77605386080228</v>
+        <v>4.77357915235386</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
@@ -910,22 +910,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>0.877197448867837</v>
+        <v>0.803489900080103</v>
       </c>
       <c r="C17" t="n">
-        <v>0.794899393826895</v>
+        <v>0.791527440990884</v>
       </c>
       <c r="D17" t="n">
-        <v>1.10353266800813</v>
+        <v>1.01511313249512</v>
       </c>
       <c r="E17" t="n">
-        <v>0.269795912995448</v>
+        <v>0.310051902278749</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.680776734365596</v>
+        <v>-0.747875377037183</v>
       </c>
       <c r="G17" t="n">
-        <v>2.43517163210127</v>
+        <v>2.35485517719739</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
@@ -939,22 +939,22 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>0.285547352642231</v>
+        <v>0.395605027813504</v>
       </c>
       <c r="C18" t="n">
-        <v>0.782155260003049</v>
+        <v>0.783377956615555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.365077584009495</v>
+        <v>0.504998927366612</v>
       </c>
       <c r="E18" t="n">
-        <v>0.715053493162338</v>
+        <v>0.613559589356724</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.24744878728231</v>
+        <v>-1.13978755343557</v>
       </c>
       <c r="G18" t="n">
-        <v>1.81854349256677</v>
+        <v>1.93099760906257</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
@@ -968,22 +968,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>3.08183722625203</v>
+        <v>3.08356296668149</v>
       </c>
       <c r="C19" t="n">
-        <v>0.612136438521881</v>
+        <v>0.611476936140574</v>
       </c>
       <c r="D19" t="n">
-        <v>5.03455934381835</v>
+        <v>5.04281156725853</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000000478949290696153</v>
+        <v>0.000000458740948134374</v>
       </c>
       <c r="F19" t="n">
-        <v>1.88207185312452</v>
+        <v>1.88509019446907</v>
       </c>
       <c r="G19" t="n">
-        <v>4.28160259937953</v>
+        <v>4.28203573889391</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
@@ -997,22 +997,22 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>0.46791226932884</v>
+        <v>0.564506539229096</v>
       </c>
       <c r="C20" t="n">
-        <v>0.675443036731831</v>
+        <v>0.676444152826639</v>
       </c>
       <c r="D20" t="n">
-        <v>0.692748675880738</v>
+        <v>0.834520539308689</v>
       </c>
       <c r="E20" t="n">
-        <v>0.488467286226744</v>
+        <v>0.403987718168351</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.855931756273912</v>
+        <v>-0.761299637863824</v>
       </c>
       <c r="G20" t="n">
-        <v>1.79175629493159</v>
+        <v>1.89031271632202</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
@@ -1026,22 +1026,22 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>0.14722650439109</v>
+        <v>0.228242033948886</v>
       </c>
       <c r="C21" t="n">
-        <v>0.317327369995359</v>
+        <v>0.312968694650455</v>
       </c>
       <c r="D21" t="n">
-        <v>0.463957787168636</v>
+        <v>0.729280716730477</v>
       </c>
       <c r="E21" t="n">
-        <v>0.642677989536369</v>
+        <v>0.465829965378598</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.47472371210863</v>
+        <v>-0.38516533585452</v>
       </c>
       <c r="G21" t="n">
-        <v>0.769176720890809</v>
+        <v>0.841649403752291</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
@@ -1055,22 +1055,22 @@
         <v>19</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.570183187254814</v>
+        <v>-0.549272317887036</v>
       </c>
       <c r="C22" t="n">
-        <v>0.225650402070734</v>
+        <v>0.224597261878842</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.52684321420389</v>
+        <v>-2.44558777472247</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0115092870347562</v>
+        <v>0.0144616242307906</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.01244984841044</v>
+        <v>-0.989474862195876</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.127916526099192</v>
+        <v>-0.109069773578195</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
@@ -1084,22 +1084,22 @@
         <v>20</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.06930592778231</v>
+        <v>-1.03194742986404</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237031030136457</v>
+        <v>0.233586462812161</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.51124870514514</v>
+        <v>-4.41783919085191</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00000644471027324359</v>
+        <v>0.00000996925465323156</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.5338782100682</v>
+        <v>-1.48976848425198</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.604733645496427</v>
+        <v>-0.574126375476096</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
@@ -1113,22 +1113,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.44745736758557</v>
+        <v>-2.42410395333574</v>
       </c>
       <c r="C24" t="n">
-        <v>0.537256802800438</v>
+        <v>0.536107374153305</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.55547022360304</v>
+        <v>-4.52167619810159</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00000522685197995772</v>
+        <v>0.00000613518602934401</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.50046135152356</v>
+        <v>-3.47485509852256</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.39445338364757</v>
+        <v>-1.37335280814892</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
@@ -1142,22 +1142,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.904881887799208</v>
+        <v>-0.876651217459514</v>
       </c>
       <c r="C25" t="n">
-        <v>0.250516514018808</v>
+        <v>0.24879796272336</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.6120648227257</v>
+        <v>-3.52354660730992</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000303768604422659</v>
+        <v>0.00042581219996791</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.3958852328086</v>
+        <v>-1.36428626382424</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.41387854278982</v>
+        <v>-0.389016171094791</v>
       </c>
       <c r="H25" t="s">
         <v>21</v>
@@ -1171,22 +1171,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>1.18913082587739</v>
+        <v>1.18204533743307</v>
       </c>
       <c r="C26" t="n">
-        <v>0.485584699600177</v>
+        <v>0.485533805757869</v>
       </c>
       <c r="D26" t="n">
-        <v>2.44886386835603</v>
+        <v>2.43452736640658</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01433075994579</v>
+        <v>0.0149112522499172</v>
       </c>
       <c r="F26" t="n">
-        <v>0.237402303217344</v>
+        <v>0.230416564870979</v>
       </c>
       <c r="G26" t="n">
-        <v>2.14085934853744</v>
+        <v>2.13367410999516</v>
       </c>
       <c r="H26" t="s">
         <v>24</v>
@@ -1200,22 +1200,22 @@
         <v>11</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0433876264704803</v>
+        <v>-0.053890084654156</v>
       </c>
       <c r="C27" t="n">
-        <v>0.443840168874443</v>
+        <v>0.443707714244314</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.097755069309092</v>
+        <v>-0.121454017868355</v>
       </c>
       <c r="E27" t="n">
-        <v>0.922126785929701</v>
+        <v>0.903331433433902</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.913298372356564</v>
+        <v>-0.9235412242356</v>
       </c>
       <c r="G27" t="n">
-        <v>0.826523119415604</v>
+        <v>0.815761054927288</v>
       </c>
       <c r="H27" t="s">
         <v>24</v>
@@ -1229,22 +1229,22 @@
         <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>0.378529401742054</v>
+        <v>0.365594726800738</v>
       </c>
       <c r="C28" t="n">
-        <v>0.586787160108975</v>
+        <v>0.586948828089802</v>
       </c>
       <c r="D28" t="n">
-        <v>0.645088078736685</v>
+        <v>0.622873254540006</v>
       </c>
       <c r="E28" t="n">
-        <v>0.518870108843297</v>
+        <v>0.533367814834831</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.771552298662075</v>
+        <v>-0.784803837023265</v>
       </c>
       <c r="G28" t="n">
-        <v>1.52861110214618</v>
+        <v>1.51599329062474</v>
       </c>
       <c r="H28" t="s">
         <v>24</v>
@@ -1258,22 +1258,22 @@
         <v>13</v>
       </c>
       <c r="B29" t="n">
-        <v>2.28175876015907</v>
+        <v>2.27793052892077</v>
       </c>
       <c r="C29" t="n">
-        <v>0.843423298139535</v>
+        <v>0.843121070196573</v>
       </c>
       <c r="D29" t="n">
-        <v>2.70535419781774</v>
+        <v>2.70178342048749</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00682315936974429</v>
+        <v>0.00689686715566184</v>
       </c>
       <c r="F29" t="n">
-        <v>0.628679472083596</v>
+        <v>0.625443596728622</v>
       </c>
       <c r="G29" t="n">
-        <v>3.93483804823455</v>
+        <v>3.93041746111292</v>
       </c>
       <c r="H29" t="s">
         <v>24</v>
@@ -1287,22 +1287,22 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>1.09485470655707</v>
+        <v>1.09257769025936</v>
       </c>
       <c r="C30" t="n">
-        <v>0.808785129335267</v>
+        <v>0.808637265785076</v>
       </c>
       <c r="D30" t="n">
-        <v>1.35370281530389</v>
+        <v>1.35113447832338</v>
       </c>
       <c r="E30" t="n">
-        <v>0.17583120959743</v>
+        <v>0.176652358660867</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.490335018171617</v>
+        <v>-0.492322227236331</v>
       </c>
       <c r="G30" t="n">
-        <v>2.68004443128577</v>
+        <v>2.67747760775505</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
@@ -1316,22 +1316,22 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.287734753878671</v>
+        <v>-0.258685051963685</v>
       </c>
       <c r="C31" t="n">
-        <v>0.783123345615718</v>
+        <v>0.782841616627478</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.367419456321333</v>
+        <v>-0.330443663787464</v>
       </c>
       <c r="E31" t="n">
-        <v>0.713306160900651</v>
+        <v>0.741064753710949</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.82262830673799</v>
+        <v>-1.79302642615265</v>
       </c>
       <c r="G31" t="n">
-        <v>1.24715879898065</v>
+        <v>1.27565632222528</v>
       </c>
       <c r="H31" t="s">
         <v>24</v>
@@ -1345,22 +1345,22 @@
         <v>16</v>
       </c>
       <c r="B32" t="n">
-        <v>1.35430815025029</v>
+        <v>1.35283543370968</v>
       </c>
       <c r="C32" t="n">
-        <v>0.55306405042784</v>
+        <v>0.552947775044999</v>
       </c>
       <c r="D32" t="n">
-        <v>2.4487365418212</v>
+        <v>2.44658807714632</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0143358264564892</v>
+        <v>0.0144215556125053</v>
       </c>
       <c r="F32" t="n">
-        <v>0.270322530267884</v>
+        <v>0.269077709289925</v>
       </c>
       <c r="G32" t="n">
-        <v>2.4382937702327</v>
+        <v>2.43659315812943</v>
       </c>
       <c r="H32" t="s">
         <v>24</v>
@@ -1374,22 +1374,22 @@
         <v>17</v>
       </c>
       <c r="B33" t="n">
-        <v>4.21677428087709</v>
+        <v>4.21529735533627</v>
       </c>
       <c r="C33" t="n">
-        <v>1.07179778777723</v>
+        <v>1.07155904637474</v>
       </c>
       <c r="D33" t="n">
-        <v>3.93430022805152</v>
+        <v>3.93379848697776</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0000834394342095215</v>
+        <v>0.000083613890827267</v>
       </c>
       <c r="F33" t="n">
-        <v>2.11608921812401</v>
+        <v>2.1150802171337</v>
       </c>
       <c r="G33" t="n">
-        <v>6.31745934363018</v>
+        <v>6.31551449353885</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
@@ -1403,22 +1403,22 @@
         <v>18</v>
       </c>
       <c r="B34" t="n">
-        <v>0.28549870809171</v>
+        <v>0.287813722058309</v>
       </c>
       <c r="C34" t="n">
-        <v>0.242190897111395</v>
+        <v>0.241676588255756</v>
       </c>
       <c r="D34" t="n">
-        <v>1.17881684033895</v>
+        <v>1.19090444025024</v>
       </c>
       <c r="E34" t="n">
-        <v>0.238471117085894</v>
+        <v>0.233691101227524</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.18918672763007</v>
+        <v>-0.185863686829489</v>
       </c>
       <c r="G34" t="n">
-        <v>0.76018414381349</v>
+        <v>0.761491130946107</v>
       </c>
       <c r="H34" t="s">
         <v>24</v>
@@ -1432,22 +1432,22 @@
         <v>19</v>
       </c>
       <c r="B35" t="n">
-        <v>0.407594400800338</v>
+        <v>0.402090519390003</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251495853007902</v>
+        <v>0.252046561125138</v>
       </c>
       <c r="D35" t="n">
-        <v>1.62068040456926</v>
+        <v>1.59530254090779</v>
       </c>
       <c r="E35" t="n">
-        <v>0.105086198274003</v>
+        <v>0.110644597689626</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.0853284133563293</v>
+        <v>-0.091911662842441</v>
       </c>
       <c r="G35" t="n">
-        <v>0.900517214957006</v>
+        <v>0.896092701622447</v>
       </c>
       <c r="H35" t="s">
         <v>24</v>
@@ -1461,22 +1461,22 @@
         <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.61796966532425</v>
+        <v>-0.615404640039295</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231580778835642</v>
+        <v>0.231136951636735</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.66848426899383</v>
+        <v>-2.66251084338298</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0076194346509191</v>
+        <v>0.00775600706208012</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.07185965135384</v>
+        <v>-1.06842474074367</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.164079679294656</v>
+        <v>-0.162384539334918</v>
       </c>
       <c r="H36" t="s">
         <v>24</v>
@@ -1490,22 +1490,22 @@
         <v>9</v>
       </c>
       <c r="B37" t="n">
-        <v>1.69161256339293</v>
+        <v>1.70764890658231</v>
       </c>
       <c r="C37" t="n">
-        <v>0.575760623113497</v>
+        <v>0.57657934945419</v>
       </c>
       <c r="D37" t="n">
-        <v>2.93804837546083</v>
+        <v>2.96168932896891</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00330285482641822</v>
+        <v>0.00305956323943265</v>
       </c>
       <c r="F37" t="n">
-        <v>0.563142478374133</v>
+        <v>0.577574147422562</v>
       </c>
       <c r="G37" t="n">
-        <v>2.82008264841172</v>
+        <v>2.83772366574205</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
@@ -1519,22 +1519,22 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>0.322130967597674</v>
+        <v>0.380871645781247</v>
       </c>
       <c r="C38" t="n">
-        <v>0.444749417417591</v>
+        <v>0.44583703038725</v>
       </c>
       <c r="D38" t="n">
-        <v>0.724297671862297</v>
+        <v>0.854284457821788</v>
       </c>
       <c r="E38" t="n">
-        <v>0.468883005991495</v>
+        <v>0.39294739663691</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.549561872685975</v>
+        <v>-0.492952876752051</v>
       </c>
       <c r="G38" t="n">
-        <v>1.19382380788132</v>
+        <v>1.25469616831455</v>
       </c>
       <c r="H38" t="s">
         <v>25</v>
@@ -1548,22 +1548,22 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>0.642272175509545</v>
+        <v>0.690265894451469</v>
       </c>
       <c r="C39" t="n">
-        <v>0.598553251025082</v>
+        <v>0.599924928194697</v>
       </c>
       <c r="D39" t="n">
-        <v>1.07304099411304</v>
+        <v>1.15058711850602</v>
       </c>
       <c r="E39" t="n">
-        <v>0.283252723490072</v>
+        <v>0.249902134917057</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.530870639328977</v>
+        <v>-0.485565358237914</v>
       </c>
       <c r="G39" t="n">
-        <v>1.81541499034807</v>
+        <v>1.86609714714085</v>
       </c>
       <c r="H39" t="s">
         <v>25</v>
@@ -1577,22 +1577,22 @@
         <v>13</v>
       </c>
       <c r="B40" t="n">
-        <v>0.713063142479103</v>
+        <v>0.668349471553094</v>
       </c>
       <c r="C40" t="n">
-        <v>0.78958920361765</v>
+        <v>0.785600070524536</v>
       </c>
       <c r="D40" t="n">
-        <v>0.903081170831708</v>
+        <v>0.85075026929013</v>
       </c>
       <c r="E40" t="n">
-        <v>0.366482816460572</v>
+        <v>0.394908092216847</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.834503259193154</v>
+        <v>-0.871398372927122</v>
       </c>
       <c r="G40" t="n">
-        <v>2.26062954415136</v>
+        <v>2.20809731603331</v>
       </c>
       <c r="H40" t="s">
         <v>25</v>
@@ -1606,22 +1606,22 @@
         <v>14</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.944187189193543</v>
+        <v>-0.926875930295774</v>
       </c>
       <c r="C41" t="n">
-        <v>0.778079519464272</v>
+        <v>0.778399675961714</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.21348418198135</v>
+        <v>-1.19074552433571</v>
       </c>
       <c r="E41" t="n">
-        <v>0.224944758440282</v>
+        <v>0.233753500386759</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.46919502445175</v>
+        <v>-2.45251126075838</v>
       </c>
       <c r="G41" t="n">
-        <v>0.580820646064661</v>
+        <v>0.598759400166833</v>
       </c>
       <c r="H41" t="s">
         <v>25</v>
@@ -1635,22 +1635,22 @@
         <v>15</v>
       </c>
       <c r="B42" t="n">
-        <v>0.543551890278005</v>
+        <v>-0.062443185305317</v>
       </c>
       <c r="C42" t="n">
-        <v>0.791270262346123</v>
+        <v>0.773723316972035</v>
       </c>
       <c r="D42" t="n">
-        <v>0.686935824766583</v>
+        <v>-0.0807047996817368</v>
       </c>
       <c r="E42" t="n">
-        <v>0.492123170211002</v>
+        <v>0.93567671967665</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.00730932595796</v>
+        <v>-1.57891302056937</v>
       </c>
       <c r="G42" t="n">
-        <v>2.09441310651397</v>
+        <v>1.45402664995874</v>
       </c>
       <c r="H42" t="s">
         <v>25</v>
@@ -1664,22 +1664,22 @@
         <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>1.44357791649628</v>
+        <v>1.38066869585266</v>
       </c>
       <c r="C43" t="n">
-        <v>0.596971308712706</v>
+        <v>0.590016093482996</v>
       </c>
       <c r="D43" t="n">
-        <v>2.41816967654471</v>
+        <v>2.34005260382351</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0155988011486535</v>
+        <v>0.0192810239567181</v>
       </c>
       <c r="F43" t="n">
-        <v>0.273535651615633</v>
+        <v>0.224258402326971</v>
       </c>
       <c r="G43" t="n">
-        <v>2.61362018137692</v>
+        <v>2.53707898937835</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
@@ -1693,22 +1693,22 @@
         <v>17</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.111694216414295</v>
+        <v>-0.113787622997052</v>
       </c>
       <c r="C44" t="n">
-        <v>0.773840167160801</v>
+        <v>0.77375653612058</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.144337579198167</v>
+        <v>-0.147058690537924</v>
       </c>
       <c r="E44" t="n">
-        <v>0.885233905076166</v>
+        <v>0.883085695478832</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.62839307383992</v>
+        <v>-1.63032256659585</v>
       </c>
       <c r="G44" t="n">
-        <v>1.40500464101133</v>
+        <v>1.40274732060175</v>
       </c>
       <c r="H44" t="s">
         <v>25</v>
@@ -1722,22 +1722,22 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>0.596188815771223</v>
+        <v>0.556031258349634</v>
       </c>
       <c r="C45" t="n">
-        <v>0.270100012191603</v>
+        <v>0.276382196063766</v>
       </c>
       <c r="D45" t="n">
-        <v>2.20728911092495</v>
+        <v>2.01182010371373</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0272938675629899</v>
+        <v>0.0442389039421716</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0668025196518514</v>
+        <v>0.0143321080965645</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1255751118906</v>
+        <v>1.0977304086027</v>
       </c>
       <c r="H45" t="s">
         <v>25</v>
@@ -1751,22 +1751,22 @@
         <v>19</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.24766583644345</v>
+        <v>-0.204028042643915</v>
       </c>
       <c r="C46" t="n">
-        <v>0.225388022187366</v>
+        <v>0.223087326344779</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.0988420504332</v>
+        <v>-0.914565815937889</v>
       </c>
       <c r="E46" t="n">
-        <v>0.271836966901549</v>
+        <v>0.360419611359496</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.689418242477402</v>
+        <v>-0.641271167687015</v>
       </c>
       <c r="G46" t="n">
-        <v>0.194086569590503</v>
+        <v>0.233215082399185</v>
       </c>
       <c r="H46" t="s">
         <v>25</v>
@@ -1780,22 +1780,22 @@
         <v>20</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.180586210914725</v>
+        <v>-0.179596059311036</v>
       </c>
       <c r="C47" t="n">
-        <v>0.204937012316995</v>
+        <v>0.208674482859208</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.88117909436191</v>
+        <v>-0.860651752194393</v>
       </c>
       <c r="E47" t="n">
-        <v>0.378220892606367</v>
+        <v>0.389429873601979</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.582255374155276</v>
+        <v>-0.588590530207605</v>
       </c>
       <c r="G47" t="n">
-        <v>0.221082952325826</v>
+        <v>0.229398411585532</v>
       </c>
       <c r="H47" t="s">
         <v>25</v>
@@ -1809,22 +1809,22 @@
         <v>22</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.55288206735625</v>
+        <v>-1.58497585616226</v>
       </c>
       <c r="C48" t="n">
-        <v>0.488741395480161</v>
+        <v>0.490466678034416</v>
       </c>
       <c r="D48" t="n">
-        <v>-3.17730824873272</v>
+        <v>-3.2315668467309</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00148648951156924</v>
+        <v>0.00123113523884626</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.51079760025122</v>
+        <v>-2.54627288072671</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.594966534461292</v>
+        <v>-0.6236788315978</v>
       </c>
       <c r="H48" t="s">
         <v>25</v>
@@ -1838,22 +1838,22 @@
         <v>23</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.22916436918424</v>
+        <v>-0.286959348910211</v>
       </c>
       <c r="C49" t="n">
-        <v>0.220446858657457</v>
+        <v>0.212016849382667</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.03954472556276</v>
+        <v>-1.35347426275674</v>
       </c>
       <c r="E49" t="n">
-        <v>0.298551468514061</v>
+        <v>0.175904166860495</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.661232272657848</v>
+        <v>-0.702504737815892</v>
       </c>
       <c r="G49" t="n">
-        <v>0.202903534289369</v>
+        <v>0.128586039995469</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -1867,22 +1867,22 @@
         <v>9</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.407454723697384</v>
+        <v>-0.338290285385904</v>
       </c>
       <c r="C50" t="n">
-        <v>0.462487146408059</v>
+        <v>0.464626914436413</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.881007670941584</v>
+        <v>-0.728090161966288</v>
       </c>
       <c r="E50" t="n">
-        <v>0.386385488317283</v>
+        <v>0.473065230470918</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.35811066813309</v>
+        <v>-1.29334458599575</v>
       </c>
       <c r="G50" t="n">
-        <v>0.543201220738318</v>
+        <v>0.616764015223945</v>
       </c>
       <c r="H50" t="s">
         <v>26</v>
@@ -1896,22 +1896,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.626128857692484</v>
+        <v>-0.5380151562489</v>
       </c>
       <c r="C51" t="n">
-        <v>0.406417850707108</v>
+        <v>0.411020273968172</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.54060373234864</v>
+        <v>-1.30897473999193</v>
       </c>
       <c r="E51" t="n">
-        <v>0.135976710212399</v>
+        <v>0.202447836646779</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.46316208975091</v>
+        <v>-1.38452725644957</v>
       </c>
       <c r="G51" t="n">
-        <v>0.210904374365939</v>
+        <v>0.308496943951772</v>
       </c>
       <c r="H51" t="s">
         <v>26</v>
@@ -1925,22 +1925,22 @@
         <v>12</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.419095826144594</v>
+        <v>-0.426217350104941</v>
       </c>
       <c r="C52" t="n">
-        <v>0.567228392904398</v>
+        <v>0.573651893115565</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.738848462783542</v>
+        <v>-0.742989529399284</v>
       </c>
       <c r="E52" t="n">
-        <v>0.466879659371348</v>
+        <v>0.464413175262595</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.5873245695475</v>
+        <v>-1.60767553983636</v>
       </c>
       <c r="G52" t="n">
-        <v>0.74913291725831</v>
+        <v>0.755240839626478</v>
       </c>
       <c r="H52" t="s">
         <v>26</v>
@@ -1954,22 +1954,22 @@
         <v>13</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.384079556621613</v>
+        <v>-0.208522843322972</v>
       </c>
       <c r="C53" t="n">
-        <v>0.714123743926362</v>
+        <v>0.702115157938486</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.537833337552795</v>
+        <v>-0.296992367940362</v>
       </c>
       <c r="E53" t="n">
-        <v>0.596091572061319</v>
+        <v>0.76925834028102</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.86508155630129</v>
+        <v>-1.66462055993878</v>
       </c>
       <c r="G53" t="n">
-        <v>1.09692244305806</v>
+        <v>1.24757487329284</v>
       </c>
       <c r="H53" t="s">
         <v>26</v>
@@ -1983,22 +1983,22 @@
         <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.399096095965045</v>
+        <v>-0.215121205484082</v>
       </c>
       <c r="C54" t="n">
-        <v>0.714123743926362</v>
+        <v>0.702115157938486</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.558861260894021</v>
+        <v>-0.306390202592563</v>
       </c>
       <c r="E54" t="n">
-        <v>0.581901027819353</v>
+        <v>0.76218844595398</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.88009809564472</v>
+        <v>-1.67121892209989</v>
       </c>
       <c r="G54" t="n">
-        <v>1.08190590371463</v>
+        <v>1.24097651113173</v>
       </c>
       <c r="H54" t="s">
         <v>26</v>
@@ -2012,22 +2012,22 @@
         <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>1.56891902973164</v>
+        <v>1.71358782409856</v>
       </c>
       <c r="C55" t="n">
-        <v>0.603544720582023</v>
+        <v>0.593395613041096</v>
       </c>
       <c r="D55" t="n">
-        <v>2.5995075033026</v>
+        <v>2.88776624976479</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0163633791306438</v>
+        <v>0.00854175894438437</v>
       </c>
       <c r="F55" t="n">
-        <v>0.317243888440919</v>
+        <v>0.482960643600235</v>
       </c>
       <c r="G55" t="n">
-        <v>2.82059417102235</v>
+        <v>2.94421500459689</v>
       </c>
       <c r="H55" t="s">
         <v>26</v>
@@ -2041,22 +2041,22 @@
         <v>16</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0261374061119676</v>
+        <v>-0.0138196166740897</v>
       </c>
       <c r="C56" t="n">
-        <v>0.467503730301116</v>
+        <v>0.459642265404141</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0559084439714152</v>
+        <v>-0.030066026808781</v>
       </c>
       <c r="E56" t="n">
-        <v>0.955919397150432</v>
+        <v>0.976285485805556</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.99568080152812</v>
+        <v>-0.967059331766133</v>
       </c>
       <c r="G56" t="n">
-        <v>0.943405989304185</v>
+        <v>0.939420098417953</v>
       </c>
       <c r="H56" t="s">
         <v>26</v>
@@ -2070,22 +2070,22 @@
         <v>17</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.0928488841039094</v>
+        <v>-0.0497428371860843</v>
       </c>
       <c r="C57" t="n">
-        <v>0.603544720582023</v>
+        <v>0.593395613041096</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.153839278080954</v>
+        <v>-0.0838274434338281</v>
       </c>
       <c r="E57" t="n">
-        <v>0.879138926729559</v>
+        <v>0.93395174153221</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.34452402539463</v>
+        <v>-1.28037001768441</v>
       </c>
       <c r="G57" t="n">
-        <v>1.15882625718681</v>
+        <v>1.18088434331224</v>
       </c>
       <c r="H57" t="s">
         <v>26</v>
@@ -2099,22 +2099,22 @@
         <v>18</v>
       </c>
       <c r="B58" t="n">
-        <v>0.120173481084492</v>
+        <v>0.124951357598893</v>
       </c>
       <c r="C58" t="n">
-        <v>0.194694863276639</v>
+        <v>0.194579147257534</v>
       </c>
       <c r="D58" t="n">
-        <v>0.61724012160372</v>
+        <v>0.642162119425441</v>
       </c>
       <c r="E58" t="n">
-        <v>0.542444684442802</v>
+        <v>0.526390034105129</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.280027541933188</v>
+        <v>-0.275011807734994</v>
       </c>
       <c r="G58" t="n">
-        <v>0.520374504102172</v>
+        <v>0.52491452293278</v>
       </c>
       <c r="H58" t="s">
         <v>26</v>
@@ -2128,22 +2128,22 @@
         <v>19</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0284874136774903</v>
+        <v>-0.0438756623837682</v>
       </c>
       <c r="C59" t="n">
-        <v>0.196036541654667</v>
+        <v>0.195927275190251</v>
       </c>
       <c r="D59" t="n">
-        <v>0.145316854893681</v>
+        <v>-0.223938511578664</v>
       </c>
       <c r="E59" t="n">
-        <v>0.885581411080126</v>
+        <v>0.824555517678763</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.374471468743416</v>
+        <v>-0.446609944370412</v>
       </c>
       <c r="G59" t="n">
-        <v>0.431446296098397</v>
+        <v>0.358858619602876</v>
       </c>
       <c r="H59" t="s">
         <v>26</v>
@@ -2157,22 +2157,22 @@
         <v>20</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0247235325032383</v>
+        <v>0.0321976859027483</v>
       </c>
       <c r="C60" t="n">
-        <v>0.196056187682213</v>
+        <v>0.196014452864157</v>
       </c>
       <c r="D60" t="n">
-        <v>0.126104321396439</v>
+        <v>0.164261795149677</v>
       </c>
       <c r="E60" t="n">
-        <v>0.900619456818489</v>
+        <v>0.870795385517649</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.378275732905643</v>
+        <v>-0.370715792359003</v>
       </c>
       <c r="G60" t="n">
-        <v>0.427722797912119</v>
+        <v>0.435111164164499</v>
       </c>
       <c r="H60" t="s">
         <v>26</v>
@@ -2186,22 +2186,22 @@
         <v>22</v>
       </c>
       <c r="B61" t="n">
-        <v>0.425170081325397</v>
+        <v>0.373785635183461</v>
       </c>
       <c r="C61" t="n">
-        <v>0.39317398780975</v>
+        <v>0.395176898019224</v>
       </c>
       <c r="D61" t="n">
-        <v>1.08137896836433</v>
+        <v>0.945869146341844</v>
       </c>
       <c r="E61" t="n">
-        <v>0.289457010415304</v>
+        <v>0.352923574596168</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.383010625126158</v>
+        <v>-0.438512112166625</v>
       </c>
       <c r="G61" t="n">
-        <v>1.23335078777695</v>
+        <v>1.18608338253355</v>
       </c>
       <c r="H61" t="s">
         <v>26</v>
@@ -2215,22 +2215,22 @@
         <v>9</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.322704186061636</v>
+        <v>-0.323192195469017</v>
       </c>
       <c r="C62" t="n">
-        <v>0.465053129122445</v>
+        <v>0.465040094717262</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.693908213606858</v>
+        <v>-0.694977054968805</v>
       </c>
       <c r="E62" t="n">
-        <v>0.493893450704751</v>
+        <v>0.493234386691682</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.27863458350581</v>
+        <v>-1.27909580030962</v>
       </c>
       <c r="G62" t="n">
-        <v>0.633226211382536</v>
+        <v>0.632711409371585</v>
       </c>
       <c r="H62" t="s">
         <v>27</v>
@@ -2244,22 +2244,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.233277037553081</v>
+        <v>-0.234181666242503</v>
       </c>
       <c r="C63" t="n">
-        <v>0.410354030189394</v>
+        <v>0.410159656537189</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.568477510615443</v>
+        <v>-0.570952463291012</v>
       </c>
       <c r="E63" t="n">
-        <v>0.574782229559805</v>
+        <v>0.573128985313023</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.07841698300583</v>
+        <v>-1.07892129166489</v>
       </c>
       <c r="G63" t="n">
-        <v>0.611862907899667</v>
+        <v>0.610557959179888</v>
       </c>
       <c r="H63" t="s">
         <v>27</v>
@@ -2273,22 +2273,22 @@
         <v>12</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.788467242043254</v>
+        <v>-0.793411005026606</v>
       </c>
       <c r="C64" t="n">
-        <v>0.572722031429468</v>
+        <v>0.572450748428065</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.37670143415874</v>
+        <v>-1.38598998639672</v>
       </c>
       <c r="E64" t="n">
-        <v>0.180809692920808</v>
+        <v>0.177989459078379</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.96801034578343</v>
+        <v>-1.97239539096668</v>
       </c>
       <c r="G64" t="n">
-        <v>0.391075861696921</v>
+        <v>0.385573380913472</v>
       </c>
       <c r="H64" t="s">
         <v>27</v>
@@ -2302,22 +2302,22 @@
         <v>13</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.930325195784689</v>
+        <v>-0.935862126702629</v>
       </c>
       <c r="C65" t="n">
-        <v>0.794232400639705</v>
+        <v>0.793965648833109</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.17135135136186</v>
+        <v>-1.17871866128977</v>
       </c>
       <c r="E65" t="n">
-        <v>0.253988244931083</v>
+        <v>0.251102128076377</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.57746238112813</v>
+        <v>-2.58244610265856</v>
       </c>
       <c r="G65" t="n">
-        <v>0.716811989558755</v>
+        <v>0.710721849253302</v>
       </c>
       <c r="H65" t="s">
         <v>27</v>
@@ -2331,22 +2331,22 @@
         <v>14</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.228912990136947</v>
+        <v>-0.228779213400947</v>
       </c>
       <c r="C66" t="n">
-        <v>0.794232400639705</v>
+        <v>0.793965648833109</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.288219153427349</v>
+        <v>-0.288147495722496</v>
       </c>
       <c r="E66" t="n">
-        <v>0.775876921981011</v>
+        <v>0.775931053630128</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.87605017548039</v>
+        <v>-1.87536318935688</v>
       </c>
       <c r="G66" t="n">
-        <v>1.4182241952065</v>
+        <v>1.41780476255498</v>
       </c>
       <c r="H66" t="s">
         <v>27</v>
@@ -2360,22 +2360,22 @@
         <v>15</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.5340403028406</v>
+        <v>-0.534994599768235</v>
       </c>
       <c r="C67" t="n">
-        <v>0.67124889264389</v>
+        <v>0.67102344621959</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.795592080215048</v>
+        <v>-0.797281529851581</v>
       </c>
       <c r="E67" t="n">
-        <v>0.434769824228434</v>
+        <v>0.433808679431005</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.92612530315517</v>
+        <v>-1.92661205281519</v>
       </c>
       <c r="G67" t="n">
-        <v>0.858044697473965</v>
+        <v>0.856622853278718</v>
       </c>
       <c r="H67" t="s">
         <v>27</v>
@@ -2389,22 +2389,22 @@
         <v>16</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.641758368863869</v>
+        <v>-0.644087821918368</v>
       </c>
       <c r="C68" t="n">
-        <v>0.519947156473991</v>
+        <v>0.519772526424636</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.23427613916756</v>
+        <v>-1.23917250176507</v>
       </c>
       <c r="E68" t="n">
-        <v>0.230122528776526</v>
+        <v>0.228339337318832</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.72006277340856</v>
+        <v>-1.72203006590685</v>
       </c>
       <c r="G68" t="n">
-        <v>0.436546035680822</v>
+        <v>0.433854422070117</v>
       </c>
       <c r="H68" t="s">
         <v>27</v>
@@ -2418,22 +2418,22 @@
         <v>17</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.726482395217195</v>
+        <v>-0.723807384064994</v>
       </c>
       <c r="C69" t="n">
-        <v>0.67124889264389</v>
+        <v>0.67102344621959</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.08228468333967</v>
+        <v>-1.07866183833483</v>
       </c>
       <c r="E69" t="n">
-        <v>0.290846618969946</v>
+        <v>0.292423589134678</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.11856739553176</v>
+        <v>-2.11542483711195</v>
       </c>
       <c r="G69" t="n">
-        <v>0.66560260509737</v>
+        <v>0.667810068981958</v>
       </c>
       <c r="H69" t="s">
         <v>27</v>
@@ -2447,22 +2447,22 @@
         <v>18</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.232055472729313</v>
+        <v>-0.234450374270539</v>
       </c>
       <c r="C70" t="n">
-        <v>0.190762665430551</v>
+        <v>0.190650003732615</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.2164616813545</v>
+        <v>-1.22974230097238</v>
       </c>
       <c r="E70" t="n">
-        <v>0.23473745731229</v>
+        <v>0.229805814576559</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.624173747315791</v>
+        <v>-0.626337069420304</v>
       </c>
       <c r="G70" t="n">
-        <v>0.160062801857165</v>
+        <v>0.157436320879225</v>
       </c>
       <c r="H70" t="s">
         <v>27</v>
@@ -2476,22 +2476,22 @@
         <v>19</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.198174116199375</v>
+        <v>-0.198434607580887</v>
       </c>
       <c r="C71" t="n">
-        <v>0.192226530994093</v>
+        <v>0.192216195038717</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.0309405011604</v>
+        <v>-1.03235113743104</v>
       </c>
       <c r="E71" t="n">
-        <v>0.312064067192133</v>
+        <v>0.311415484819708</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.59330140954593</v>
+        <v>-0.59354065506689</v>
       </c>
       <c r="G71" t="n">
-        <v>0.196953177147179</v>
+        <v>0.196671439905117</v>
       </c>
       <c r="H71" t="s">
         <v>27</v>
@@ -2505,22 +2505,22 @@
         <v>20</v>
       </c>
       <c r="B72" t="n">
-        <v>0.181976954410898</v>
+        <v>0.18337745777515</v>
       </c>
       <c r="C72" t="n">
-        <v>0.192841543966436</v>
+        <v>0.192790510856087</v>
       </c>
       <c r="D72" t="n">
-        <v>0.943660534280779</v>
+        <v>0.951174707514713</v>
       </c>
       <c r="E72" t="n">
-        <v>0.354030163594715</v>
+        <v>0.350274783930505</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.214414516205456</v>
+        <v>-0.212909112780534</v>
       </c>
       <c r="G72" t="n">
-        <v>0.578368425027252</v>
+        <v>0.579664028330835</v>
       </c>
       <c r="H72" t="s">
         <v>27</v>
@@ -2534,22 +2534,22 @@
         <v>22</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.440268174769884</v>
+        <v>-0.438194478117056</v>
       </c>
       <c r="C73" t="n">
-        <v>0.392534365682449</v>
+        <v>0.392623601280673</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.12160415306427</v>
+        <v>-1.11606759422444</v>
       </c>
       <c r="E73" t="n">
-        <v>0.27228310259181</v>
+        <v>0.274602161217843</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.24713411910917</v>
+        <v>-1.24524384885546</v>
       </c>
       <c r="G73" t="n">
-        <v>0.366597769569397</v>
+        <v>0.368854892621348</v>
       </c>
       <c r="H73" t="s">
         <v>27</v>
@@ -2563,22 +2563,22 @@
         <v>23</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.166521368727747</v>
+        <v>-0.167252429607842</v>
       </c>
       <c r="C74" t="n">
-        <v>0.193377931458765</v>
+        <v>0.193353664084782</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.861118781608516</v>
+        <v>-0.865007810426106</v>
       </c>
       <c r="E74" t="n">
-        <v>0.397044716946052</v>
+        <v>0.394945786508322</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.564015399625101</v>
+        <v>-0.564696578203575</v>
       </c>
       <c r="G74" t="n">
-        <v>0.230972662169608</v>
+        <v>0.230191718987892</v>
       </c>
       <c r="H74" t="s">
         <v>27</v>
@@ -2592,22 +2592,22 @@
         <v>9</v>
       </c>
       <c r="B75" t="n">
-        <v>0.243276820401696</v>
+        <v>0.243318625623534</v>
       </c>
       <c r="C75" t="n">
-        <v>0.466908371670171</v>
+        <v>0.46690753382464</v>
       </c>
       <c r="D75" t="n">
-        <v>0.521037606439725</v>
+        <v>0.521128077823904</v>
       </c>
       <c r="E75" t="n">
-        <v>0.606750308062795</v>
+        <v>0.606688168989929</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.716467082715149</v>
+        <v>-0.716423555277157</v>
       </c>
       <c r="G75" t="n">
-        <v>1.20302072351854</v>
+        <v>1.20306080652422</v>
       </c>
       <c r="H75" t="s">
         <v>28</v>
@@ -2621,22 +2621,22 @@
         <v>11</v>
       </c>
       <c r="B76" t="n">
-        <v>0.160723061372295</v>
+        <v>0.160873153815419</v>
       </c>
       <c r="C76" t="n">
-        <v>0.422017318874532</v>
+        <v>0.42201725247597</v>
       </c>
       <c r="D76" t="n">
-        <v>0.380844705143674</v>
+        <v>0.381200419820702</v>
       </c>
       <c r="E76" t="n">
-        <v>0.706535619323005</v>
+        <v>0.706274998663757</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.708437876779385</v>
+        <v>-0.708287647585863</v>
       </c>
       <c r="G76" t="n">
-        <v>1.02988399952397</v>
+        <v>1.0300339552167</v>
       </c>
       <c r="H76" t="s">
         <v>28</v>
@@ -2650,22 +2650,22 @@
         <v>12</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.230314556434276</v>
+        <v>-0.230111762265075</v>
       </c>
       <c r="C77" t="n">
-        <v>0.589000225129228</v>
+        <v>0.589000132458226</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.391026262144033</v>
+        <v>-0.390682021249623</v>
       </c>
       <c r="E77" t="n">
-        <v>0.699090465560863</v>
+        <v>0.699341692306518</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.44338322766829</v>
+        <v>-1.44318024263959</v>
       </c>
       <c r="G77" t="n">
-        <v>0.98275411479974</v>
+        <v>0.982956718109439</v>
       </c>
       <c r="H77" t="s">
         <v>28</v>
@@ -2679,22 +2679,22 @@
         <v>13</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.499317607751222</v>
+        <v>-0.499971964340998</v>
       </c>
       <c r="C78" t="n">
-        <v>0.822298301095517</v>
+        <v>0.822259442109841</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.60722198633513</v>
+        <v>-0.608046485982717</v>
       </c>
       <c r="E78" t="n">
-        <v>0.549920122307871</v>
+        <v>0.549382999788257</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.20465990817645</v>
+        <v>-2.20523367616239</v>
       </c>
       <c r="G78" t="n">
-        <v>1.20602469267401</v>
+        <v>1.20528974748039</v>
       </c>
       <c r="H78" t="s">
         <v>28</v>
@@ -2708,22 +2708,22 @@
         <v>14</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.324774435856583</v>
+        <v>-0.32482604938837</v>
       </c>
       <c r="C79" t="n">
-        <v>0.822298301095517</v>
+        <v>0.822259442109841</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.394959390556807</v>
+        <v>-0.395040826232286</v>
       </c>
       <c r="E79" t="n">
-        <v>0.696676131032813</v>
+        <v>0.696616903196109</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.03011673628181</v>
+        <v>-2.03008776120976</v>
       </c>
       <c r="G79" t="n">
-        <v>1.38056786456864</v>
+        <v>1.38043566243302</v>
       </c>
       <c r="H79" t="s">
         <v>28</v>
@@ -2737,22 +2737,22 @@
         <v>15</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0180564660151461</v>
+        <v>0.0175572679038161</v>
       </c>
       <c r="C80" t="n">
-        <v>0.694968907826907</v>
+        <v>0.694936065989829</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0259816889817514</v>
+        <v>0.0252645801003413</v>
       </c>
       <c r="E80" t="n">
-        <v>0.97950618119418</v>
+        <v>0.980071694253778</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.42322083495775</v>
+        <v>-1.42365192326766</v>
       </c>
       <c r="G80" t="n">
-        <v>1.45933376698804</v>
+        <v>1.4587664590753</v>
       </c>
       <c r="H80" t="s">
         <v>28</v>
@@ -2766,22 +2766,22 @@
         <v>16</v>
       </c>
       <c r="B81" t="n">
-        <v>0.352903269601414</v>
+        <v>0.353106664425548</v>
       </c>
       <c r="C81" t="n">
-        <v>0.538320601229113</v>
+        <v>0.538295162051501</v>
       </c>
       <c r="D81" t="n">
-        <v>0.655563373936745</v>
+        <v>0.655972205062777</v>
       </c>
       <c r="E81" t="n">
-        <v>0.518902412120497</v>
+        <v>0.518644264731634</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.763505327185547</v>
+        <v>-0.763249174736093</v>
       </c>
       <c r="G81" t="n">
-        <v>1.46931186638838</v>
+        <v>1.46946250358719</v>
       </c>
       <c r="H81" t="s">
         <v>28</v>
@@ -2795,22 +2795,22 @@
         <v>17</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.117999148325661</v>
+        <v>-0.118276755470501</v>
       </c>
       <c r="C82" t="n">
-        <v>0.694968907826907</v>
+        <v>0.694936065989829</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.169790543140457</v>
+        <v>-0.170198038724661</v>
       </c>
       <c r="E82" t="n">
-        <v>0.866726509925349</v>
+        <v>0.866409864342684</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.55927644929856</v>
+        <v>-1.55948594664198</v>
       </c>
       <c r="G82" t="n">
-        <v>1.32327815264724</v>
+        <v>1.32293243570098</v>
       </c>
       <c r="H82" t="s">
         <v>28</v>
@@ -2824,22 +2824,22 @@
         <v>18</v>
       </c>
       <c r="B83" t="n">
-        <v>0.198734533196836</v>
+        <v>0.198467848888721</v>
       </c>
       <c r="C83" t="n">
-        <v>0.192204276878997</v>
+        <v>0.192214875050482</v>
       </c>
       <c r="D83" t="n">
-        <v>1.03397560358113</v>
+        <v>1.03253116511715</v>
       </c>
       <c r="E83" t="n">
-        <v>0.310669754162517</v>
+        <v>0.311332779437986</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.196347016161009</v>
+        <v>-0.196635485322607</v>
       </c>
       <c r="G83" t="n">
-        <v>0.593816082554681</v>
+        <v>0.593571183100048</v>
       </c>
       <c r="H83" t="s">
         <v>28</v>
@@ -2853,22 +2853,22 @@
         <v>19</v>
       </c>
       <c r="B84" t="n">
-        <v>0.103225510932337</v>
+        <v>0.103137473747531</v>
       </c>
       <c r="C84" t="n">
-        <v>0.19506847849811</v>
+        <v>0.19507026953905</v>
       </c>
       <c r="D84" t="n">
-        <v>0.529175762927466</v>
+        <v>0.52871959418134</v>
       </c>
       <c r="E84" t="n">
-        <v>0.601172811427911</v>
+        <v>0.601484798323105</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.297743489171802</v>
+        <v>-0.297835207893986</v>
       </c>
       <c r="G84" t="n">
-        <v>0.504194511036477</v>
+        <v>0.504110155389048</v>
       </c>
       <c r="H84" t="s">
         <v>28</v>
@@ -2882,22 +2882,22 @@
         <v>20</v>
       </c>
       <c r="B85" t="n">
-        <v>0.00322545343172042</v>
+        <v>0.00321084006371107</v>
       </c>
       <c r="C85" t="n">
-        <v>0.196115114983538</v>
+        <v>0.196115124206528</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0164467355409662</v>
+        <v>0.0163722205347598</v>
       </c>
       <c r="E85" t="n">
-        <v>0.987003555449631</v>
+        <v>0.987062432792565</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.399894938779773</v>
+        <v>-0.39990957110591</v>
       </c>
       <c r="G85" t="n">
-        <v>0.406345845643214</v>
+        <v>0.406331251233332</v>
       </c>
       <c r="H85" t="s">
         <v>28</v>
@@ -2911,22 +2911,22 @@
         <v>22</v>
       </c>
       <c r="B86" t="n">
-        <v>0.923797431701555</v>
+        <v>0.923777929114583</v>
       </c>
       <c r="C86" t="n">
-        <v>0.358769172909354</v>
+        <v>0.358771104320588</v>
       </c>
       <c r="D86" t="n">
-        <v>2.57490749333405</v>
+        <v>2.5748392721425</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0160687809147416</v>
+        <v>0.0160712927956541</v>
       </c>
       <c r="F86" t="n">
-        <v>0.186336835108823</v>
+        <v>0.186313362449201</v>
       </c>
       <c r="G86" t="n">
-        <v>1.66125802829429</v>
+        <v>1.66124249577996</v>
       </c>
       <c r="H86" t="s">
         <v>28</v>
@@ -2940,22 +2940,22 @@
         <v>9</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.402021345368488</v>
+        <v>-0.403613038580023</v>
       </c>
       <c r="C87" t="n">
-        <v>0.462669992258182</v>
+        <v>0.462616689743535</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.868915970552397</v>
+        <v>-0.872456717469009</v>
       </c>
       <c r="E87" t="n">
-        <v>0.39284369864371</v>
+        <v>0.390945440794562</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.35305313483185</v>
+        <v>-1.35453526315538</v>
       </c>
       <c r="G87" t="n">
-        <v>0.549010444094874</v>
+        <v>0.54730918599533</v>
       </c>
       <c r="H87" t="s">
         <v>29</v>
@@ -2969,22 +2969,22 @@
         <v>11</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0327785940668416</v>
+        <v>0.0302218783748947</v>
       </c>
       <c r="C88" t="n">
-        <v>0.383817902810302</v>
+        <v>0.383444273849604</v>
       </c>
       <c r="D88" t="n">
-        <v>0.085401420378877</v>
+        <v>0.0788168723227525</v>
       </c>
       <c r="E88" t="n">
-        <v>0.932622535901316</v>
+        <v>0.937805773208234</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.757709174007894</v>
+        <v>-0.759496386450857</v>
       </c>
       <c r="G88" t="n">
-        <v>0.823266362141577</v>
+        <v>0.819940143200646</v>
       </c>
       <c r="H88" t="s">
         <v>29</v>
@@ -2998,22 +2998,22 @@
         <v>12</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.19856921400484</v>
+        <v>-1.20497644300188</v>
       </c>
       <c r="C89" t="n">
-        <v>0.535686146167636</v>
+        <v>0.535164680502309</v>
       </c>
       <c r="D89" t="n">
-        <v>-2.23744672618389</v>
+        <v>-2.25159934297398</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0344096782022753</v>
+        <v>0.0333817437360826</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.30183548421292</v>
+        <v>-2.30716873456829</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0953029437967572</v>
+        <v>-0.102784151435475</v>
       </c>
       <c r="H89" t="s">
         <v>29</v>
@@ -3027,22 +3027,22 @@
         <v>13</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.724351031377901</v>
+        <v>-0.73122862790104</v>
       </c>
       <c r="C90" t="n">
-        <v>0.768912102940167</v>
+        <v>0.768749515788716</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.942046598835064</v>
+        <v>-0.951192310216703</v>
       </c>
       <c r="E90" t="n">
-        <v>0.356399260055921</v>
+        <v>0.351840675542453</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.31897713325096</v>
+        <v>-2.32551754465952</v>
       </c>
       <c r="G90" t="n">
-        <v>0.87027507049516</v>
+        <v>0.863060288857438</v>
       </c>
       <c r="H90" t="s">
         <v>29</v>
@@ -3056,22 +3056,22 @@
         <v>14</v>
       </c>
       <c r="B91" t="n">
-        <v>0.162837557006665</v>
+        <v>0.162975382356006</v>
       </c>
       <c r="C91" t="n">
-        <v>0.768912102940167</v>
+        <v>0.768749515788716</v>
       </c>
       <c r="D91" t="n">
-        <v>0.211776555973051</v>
+        <v>0.212000630906151</v>
       </c>
       <c r="E91" t="n">
-        <v>0.834231021569946</v>
+        <v>0.834058351169712</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.4317885448664</v>
+        <v>-1.43131353440247</v>
       </c>
       <c r="G91" t="n">
-        <v>1.75746365887973</v>
+        <v>1.75726429911448</v>
       </c>
       <c r="H91" t="s">
         <v>29</v>
@@ -3085,22 +3085,22 @@
         <v>15</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.461107196419223</v>
+        <v>-0.455796604781947</v>
       </c>
       <c r="C92" t="n">
-        <v>0.649849335312134</v>
+        <v>0.64971192408932</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.709560157044318</v>
+        <v>-0.70153646236495</v>
       </c>
       <c r="E92" t="n">
-        <v>0.48542996623248</v>
+        <v>0.490323595228338</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.80881223111839</v>
+        <v>-1.80321666604689</v>
       </c>
       <c r="G92" t="n">
-        <v>0.886597838279944</v>
+        <v>0.891623456482999</v>
       </c>
       <c r="H92" t="s">
         <v>29</v>
@@ -3114,22 +3114,22 @@
         <v>16</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.95639901825402</v>
+        <v>-0.957617020263558</v>
       </c>
       <c r="C93" t="n">
-        <v>0.50337113064157</v>
+        <v>0.503264692366063</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.89998782217614</v>
+        <v>-1.90280986286042</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0706211596156746</v>
+        <v>0.0702341836790528</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.00032684925197</v>
+        <v>-2.00132411178854</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0875288127439322</v>
+        <v>0.0860900712614243</v>
       </c>
       <c r="H93" t="s">
         <v>29</v>
@@ -3143,22 +3143,22 @@
         <v>17</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.598159272971235</v>
+        <v>-0.59353956506735</v>
       </c>
       <c r="C94" t="n">
-        <v>0.649849335312134</v>
+        <v>0.64971192408932</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.920458390072722</v>
+        <v>-0.913542668774773</v>
       </c>
       <c r="E94" t="n">
-        <v>0.367316865301804</v>
+        <v>0.370860958103904</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.9458643076704</v>
+        <v>-1.9409596263323</v>
       </c>
       <c r="G94" t="n">
-        <v>0.749545761727932</v>
+        <v>0.753880496197596</v>
       </c>
       <c r="H94" t="s">
         <v>29</v>
@@ -3172,22 +3172,22 @@
         <v>18</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.198667984407448</v>
+        <v>-0.201114091705325</v>
       </c>
       <c r="C95" t="n">
-        <v>0.192206922949389</v>
+        <v>0.192109055778777</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.03361513393438</v>
+        <v>-1.04687460406301</v>
       </c>
       <c r="E95" t="n">
-        <v>0.310835124295876</v>
+        <v>0.304792599180579</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.59375497284088</v>
+        <v>-0.595999911288486</v>
       </c>
       <c r="G95" t="n">
-        <v>0.196419004025984</v>
+        <v>0.193771727877836</v>
       </c>
       <c r="H95" t="s">
         <v>29</v>
@@ -3201,22 +3201,22 @@
         <v>19</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.229757849071747</v>
+        <v>-0.230420028212577</v>
       </c>
       <c r="C96" t="n">
-        <v>0.190869602164362</v>
+        <v>0.190838898086894</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.20374248422176</v>
+        <v>-1.20740598757629</v>
       </c>
       <c r="E96" t="n">
-        <v>0.239534586239795</v>
+        <v>0.238145426251729</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.622095935262645</v>
+        <v>-0.622695001268354</v>
       </c>
       <c r="G96" t="n">
-        <v>0.162580237119152</v>
+        <v>0.161854944843201</v>
       </c>
       <c r="H96" t="s">
         <v>29</v>
@@ -3230,22 +3230,22 @@
         <v>20</v>
       </c>
       <c r="B97" t="n">
-        <v>0.162702257264777</v>
+        <v>0.164603633732796</v>
       </c>
       <c r="C97" t="n">
-        <v>0.193502929363729</v>
+        <v>0.193441070708881</v>
       </c>
       <c r="D97" t="n">
-        <v>0.840825809716526</v>
+        <v>0.85092391770575</v>
       </c>
       <c r="E97" t="n">
-        <v>0.408112124816782</v>
+        <v>0.402580669718399</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.235048710506</v>
+        <v>-0.233020181751907</v>
       </c>
       <c r="G97" t="n">
-        <v>0.560453225035553</v>
+        <v>0.5622274492175</v>
       </c>
       <c r="H97" t="s">
         <v>29</v>
@@ -3259,22 +3259,22 @@
         <v>22</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.281109164009159</v>
+        <v>-0.278097789762238</v>
       </c>
       <c r="C98" t="n">
-        <v>0.398119504570698</v>
+        <v>0.398200839320743</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.706092418939097</v>
+        <v>-0.698385744833238</v>
       </c>
       <c r="E98" t="n">
-        <v>0.486410122666841</v>
+        <v>0.491135870711859</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.09945552575214</v>
+        <v>-1.09661133747833</v>
       </c>
       <c r="G98" t="n">
-        <v>0.537237197733827</v>
+        <v>0.54041575795385</v>
       </c>
       <c r="H98" t="s">
         <v>29</v>
@@ -3288,22 +3288,22 @@
         <v>23</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.106073419908829</v>
+        <v>-0.104955820302257</v>
       </c>
       <c r="C99" t="n">
-        <v>0.195009706818448</v>
+        <v>0.195032963267621</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.543939179435728</v>
+        <v>-0.538144006755608</v>
       </c>
       <c r="E99" t="n">
-        <v>0.59111771423104</v>
+        <v>0.595054941870704</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.506921613095265</v>
+        <v>-0.505851817804606</v>
       </c>
       <c r="G99" t="n">
-        <v>0.294774773277607</v>
+        <v>0.295940177200092</v>
       </c>
       <c r="H99" t="s">
         <v>29</v>
